--- a/file (1).xlsx
+++ b/file (1).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="30">
   <si>
     <t>Order ID</t>
   </si>
@@ -80,9 +80,6 @@
     <t xml:space="preserve">In-store </t>
   </si>
   <si>
-    <t>Joao    Silva</t>
-  </si>
-  <si>
     <t>Lisbon</t>
   </si>
   <si>
@@ -110,12 +107,6 @@
     <t>Pablo Perez</t>
   </si>
   <si>
-    <t>Pablo  Perez</t>
-  </si>
-  <si>
-    <t>Pablo    Perez</t>
-  </si>
-  <si>
     <t>Joao Silva</t>
   </si>
   <si>
@@ -126,15 +117,6 @@
   </si>
   <si>
     <t>Tom Jackson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pablo Perez</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Remy Monet</t>
-  </si>
-  <si>
-    <t>Remy  Monet</t>
   </si>
 </sst>
 </file>
@@ -7127,8 +7109,8 @@
   <dimension ref="B2:J256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7195,7 +7177,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>12</v>
@@ -7224,7 +7206,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>14</v>
@@ -7253,10 +7235,10 @@
         <v>11</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -7267,7 +7249,7 @@
         <v>44873</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4">
         <v>12.99</v>
@@ -7279,13 +7261,13 @@
         <v>16</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -7296,7 +7278,7 @@
         <v>44873</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4">
         <v>9.9499999999999993</v>
@@ -7308,13 +7290,13 @@
         <v>16</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="J7" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -7337,13 +7319,13 @@
         <v>16</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -7366,13 +7348,13 @@
         <v>16</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="J9" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -7383,7 +7365,7 @@
         <v>44874</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="4">
         <v>12.99</v>
@@ -7395,13 +7377,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -7412,7 +7394,7 @@
         <v>44874</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4">
         <v>9.9499999999999993</v>
@@ -7424,13 +7406,13 @@
         <v>16</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -7453,13 +7435,13 @@
         <v>16</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -7482,13 +7464,13 @@
         <v>16</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -7511,13 +7493,13 @@
         <v>16</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -7528,7 +7510,7 @@
         <v>44875</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="4">
         <v>12.99</v>
@@ -7540,10 +7522,10 @@
         <v>16</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>14</v>
@@ -7557,7 +7539,7 @@
         <v>44875</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="4">
         <v>9.9499999999999993</v>
@@ -7569,10 +7551,10 @@
         <v>16</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>14</v>
@@ -7598,10 +7580,10 @@
         <v>16</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>14</v>
@@ -7627,10 +7609,10 @@
         <v>16</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>14</v>
@@ -7644,7 +7626,7 @@
         <v>44876</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="4">
         <v>12.99</v>
@@ -7656,10 +7638,10 @@
         <v>16</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>14</v>
@@ -7673,7 +7655,7 @@
         <v>44876</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="4">
         <v>9.9499999999999993</v>
@@ -7685,10 +7667,10 @@
         <v>16</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>14</v>
@@ -7714,10 +7696,10 @@
         <v>16</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>14</v>
@@ -7743,10 +7725,10 @@
         <v>16</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>14</v>
@@ -7772,10 +7754,10 @@
         <v>16</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>14</v>
@@ -7789,7 +7771,7 @@
         <v>44877</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="4">
         <v>12.99</v>
@@ -7801,10 +7783,10 @@
         <v>16</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>14</v>
@@ -7818,7 +7800,7 @@
         <v>44877</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="4">
         <v>9.9499999999999993</v>
@@ -7830,10 +7812,10 @@
         <v>16</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>14</v>
@@ -7859,10 +7841,10 @@
         <v>16</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>14</v>
@@ -7888,10 +7870,10 @@
         <v>16</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>14</v>
@@ -7917,10 +7899,10 @@
         <v>16</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>14</v>
@@ -7934,7 +7916,7 @@
         <v>44878</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="4">
         <v>12.99</v>
@@ -7946,10 +7928,10 @@
         <v>16</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>14</v>
@@ -7963,7 +7945,7 @@
         <v>44878</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" s="4">
         <v>9.9499999999999993</v>
@@ -7975,10 +7957,10 @@
         <v>16</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>14</v>
@@ -8004,13 +7986,13 @@
         <v>16</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -8021,7 +8003,7 @@
         <v>44879</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32" s="4">
         <v>29.05</v>
@@ -8033,13 +8015,13 @@
         <v>16</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I32" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -8062,13 +8044,13 @@
         <v>16</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -8091,13 +8073,13 @@
         <v>16</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
@@ -8120,10 +8102,10 @@
         <v>16</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>14</v>
@@ -8137,7 +8119,7 @@
         <v>44880</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="4">
         <v>12.99</v>
@@ -8149,10 +8131,10 @@
         <v>16</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>14</v>
@@ -8166,7 +8148,7 @@
         <v>44880</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" s="4">
         <v>9.9499999999999993</v>
@@ -8178,10 +8160,10 @@
         <v>16</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>14</v>
@@ -8207,10 +8189,10 @@
         <v>16</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>14</v>
@@ -8236,10 +8218,10 @@
         <v>16</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>14</v>
@@ -8265,10 +8247,10 @@
         <v>16</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>14</v>
@@ -8282,7 +8264,7 @@
         <v>44881</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E41" s="4">
         <v>12.99</v>
@@ -8294,10 +8276,10 @@
         <v>16</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>14</v>
@@ -8311,7 +8293,7 @@
         <v>44881</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E42" s="4">
         <v>9.9499999999999993</v>
@@ -8323,10 +8305,10 @@
         <v>16</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>14</v>
@@ -8352,10 +8334,10 @@
         <v>16</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>14</v>
@@ -8378,13 +8360,13 @@
         <v>677.96610169491521</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>14</v>
@@ -8407,13 +8389,13 @@
         <v>200.40080160320639</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>14</v>
@@ -8427,7 +8409,7 @@
         <v>44882</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E46" s="4">
         <v>12.99</v>
@@ -8436,13 +8418,13 @@
         <v>523.47959969207079</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>14</v>
@@ -8456,7 +8438,7 @@
         <v>44882</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E47" s="4">
         <v>9.9499999999999993</v>
@@ -8465,13 +8447,13 @@
         <v>201.00502512562818</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>14</v>
@@ -8494,13 +8476,13 @@
         <v>630.3724928366762</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>14</v>
@@ -8523,13 +8505,13 @@
         <v>677.96610169491521</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>14</v>
@@ -8552,13 +8534,13 @@
         <v>200.40080160320639</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>14</v>
@@ -8572,7 +8554,7 @@
         <v>44883</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" s="4">
         <v>12.99</v>
@@ -8581,13 +8563,13 @@
         <v>538.87605850654347</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>14</v>
@@ -8601,7 +8583,7 @@
         <v>44883</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E52" s="4">
         <v>9.9499999999999993</v>
@@ -8610,13 +8592,13 @@
         <v>201.00502512562818</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>14</v>
@@ -8639,13 +8621,13 @@
         <v>687.67908309455584</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>14</v>
@@ -8668,13 +8650,13 @@
         <v>677.96610169491521</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>14</v>
@@ -8697,13 +8679,13 @@
         <v>200.40080160320639</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>14</v>
@@ -8717,7 +8699,7 @@
         <v>44884</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E56" s="4">
         <v>12.99</v>
@@ -8726,13 +8708,13 @@
         <v>508.08314087759817</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>14</v>
@@ -8746,7 +8728,7 @@
         <v>44884</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E57" s="4">
         <v>9.9499999999999993</v>
@@ -8755,16 +8737,16 @@
         <v>201.00502512562818</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
@@ -8784,16 +8766,16 @@
         <v>687.67908309455584</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
@@ -8813,16 +8795,16 @@
         <v>677.96610169491521</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
@@ -8842,16 +8824,16 @@
         <v>200.40080160320639</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
@@ -8862,7 +8844,7 @@
         <v>44885</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E61" s="4">
         <v>12.99</v>
@@ -8871,16 +8853,16 @@
         <v>477.29022324865281</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
@@ -8891,7 +8873,7 @@
         <v>44885</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E62" s="4">
         <v>9.9499999999999993</v>
@@ -8900,16 +8882,16 @@
         <v>201.00502512562818</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8932,13 +8914,13 @@
         <v>16</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I63" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="J63" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="64" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8961,13 +8943,13 @@
         <v>16</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I64" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="J64" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="65" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -8978,7 +8960,7 @@
         <v>44879</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E65" s="8">
         <v>12.99</v>
@@ -8990,13 +8972,13 @@
         <v>16</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I65" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="J65" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
@@ -9007,7 +8989,7 @@
         <v>44886</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66" s="4">
         <v>12.99</v>
@@ -9016,16 +8998,16 @@
         <v>492.68668206312549</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
@@ -9036,7 +9018,7 @@
         <v>44886</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E67" s="4">
         <v>9.9499999999999993</v>
@@ -9045,16 +9027,16 @@
         <v>201.00502512562818</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
@@ -9074,16 +9056,16 @@
         <v>687.67908309455584</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
@@ -9103,16 +9085,16 @@
         <v>745.7627118644067</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
@@ -9132,16 +9114,16 @@
         <v>200.40080160320639</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
@@ -9152,7 +9134,7 @@
         <v>44887</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E71" s="4">
         <v>12.99</v>
@@ -9161,16 +9143,16 @@
         <v>461.89376443418013</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
@@ -9181,7 +9163,7 @@
         <v>44887</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E72" s="4">
         <v>9.9499999999999993</v>
@@ -9190,16 +9172,16 @@
         <v>201.00502512562818</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
@@ -9219,16 +9201,16 @@
         <v>687.67908309455584</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
@@ -9248,16 +9230,16 @@
         <v>745.7627118644067</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
@@ -9277,16 +9259,16 @@
         <v>200.40080160320639</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
@@ -9297,7 +9279,7 @@
         <v>44888</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E76" s="4">
         <v>12.99</v>
@@ -9306,16 +9288,16 @@
         <v>477.29022324865281</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
@@ -9326,7 +9308,7 @@
         <v>44888</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E77" s="4">
         <v>9.9499999999999993</v>
@@ -9335,16 +9317,16 @@
         <v>201.00502512562818</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
@@ -9364,16 +9346,16 @@
         <v>687.67908309455584</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
@@ -9393,16 +9375,16 @@
         <v>745.7627118644067</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
@@ -9422,13 +9404,13 @@
         <v>200.40080160320639</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I80" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>14</v>
@@ -9442,7 +9424,7 @@
         <v>44889</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E81" s="4">
         <v>12.99</v>
@@ -9451,13 +9433,13 @@
         <v>477.29022324865281</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>14</v>
@@ -9471,7 +9453,7 @@
         <v>44889</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E82" s="4">
         <v>9.9499999999999993</v>
@@ -9480,13 +9462,13 @@
         <v>201.00502512562818</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>14</v>
@@ -9500,7 +9482,7 @@
         <v>44890</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E83" s="4">
         <v>12.99</v>
@@ -9509,13 +9491,13 @@
         <v>461.89376443418013</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>14</v>
@@ -9529,7 +9511,7 @@
         <v>44890</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E84" s="4">
         <v>9.9499999999999993</v>
@@ -9538,13 +9520,13 @@
         <v>201.00502512562818</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>12</v>
@@ -9567,13 +9549,13 @@
         <v>630.3724928366762</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>12</v>
@@ -9596,13 +9578,13 @@
         <v>745.7627118644067</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>12</v>
@@ -9625,13 +9607,13 @@
         <v>200.40080160320639</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>12</v>
@@ -9645,7 +9627,7 @@
         <v>44891</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E88" s="4">
         <v>12.99</v>
@@ -9654,13 +9636,13 @@
         <v>446.49730561970739</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>12</v>
@@ -9674,7 +9656,7 @@
         <v>44891</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E89" s="4">
         <v>9.9499999999999993</v>
@@ -9683,13 +9665,13 @@
         <v>201.00502512562818</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>12</v>
@@ -9712,13 +9694,13 @@
         <v>630.3724928366762</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>12</v>
@@ -9741,13 +9723,13 @@
         <v>745.7627118644067</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>12</v>
@@ -9770,13 +9752,13 @@
         <v>200.40080160320639</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>12</v>
@@ -9790,7 +9772,7 @@
         <v>44892</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E93" s="4">
         <v>12.99</v>
@@ -9799,13 +9781,13 @@
         <v>461.89376443418013</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>12</v>
@@ -9819,7 +9801,7 @@
         <v>44892</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E94" s="4">
         <v>9.9499999999999993</v>
@@ -9828,13 +9810,13 @@
         <v>201.00502512562818</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>12</v>
@@ -9860,10 +9842,10 @@
         <v>10</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>12</v>
@@ -9889,10 +9871,10 @@
         <v>10</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>12</v>
@@ -9918,10 +9900,10 @@
         <v>10</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>12</v>
@@ -9935,7 +9917,7 @@
         <v>44893</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E98" s="4">
         <v>12.99</v>
@@ -9947,10 +9929,10 @@
         <v>10</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>12</v>
@@ -9964,7 +9946,7 @@
         <v>44893</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E99" s="4">
         <v>9.9499999999999993</v>
@@ -9976,10 +9958,10 @@
         <v>10</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>12</v>
@@ -10005,10 +9987,10 @@
         <v>10</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>12</v>
@@ -10034,10 +10016,10 @@
         <v>10</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>12</v>
@@ -10063,10 +10045,10 @@
         <v>10</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>12</v>
@@ -10080,7 +10062,7 @@
         <v>44894</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E103" s="4">
         <v>12.99</v>
@@ -10092,10 +10074,10 @@
         <v>10</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>12</v>
@@ -10109,7 +10091,7 @@
         <v>44894</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E104" s="4">
         <v>9.9499999999999993</v>
@@ -10121,10 +10103,10 @@
         <v>10</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I104" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>12</v>
@@ -10150,10 +10132,10 @@
         <v>10</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>12</v>
@@ -10179,10 +10161,10 @@
         <v>10</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>12</v>
@@ -10208,10 +10190,10 @@
         <v>10</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J107" s="3" t="s">
         <v>12</v>
@@ -10225,7 +10207,7 @@
         <v>44895</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E108" s="4">
         <v>12.99</v>
@@ -10237,10 +10219,10 @@
         <v>10</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>12</v>
@@ -10254,7 +10236,7 @@
         <v>44895</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E109" s="4">
         <v>9.9499999999999993</v>
@@ -10266,10 +10248,10 @@
         <v>10</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J109" s="3" t="s">
         <v>12</v>
@@ -10295,10 +10277,10 @@
         <v>10</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J110" s="3" t="s">
         <v>12</v>
@@ -10324,10 +10306,10 @@
         <v>10</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J111" s="3" t="s">
         <v>12</v>
@@ -10353,10 +10335,10 @@
         <v>10</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I112" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J112" s="3" t="s">
         <v>12</v>
@@ -10370,7 +10352,7 @@
         <v>44896</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E113" s="4">
         <v>12.99</v>
@@ -10382,10 +10364,10 @@
         <v>10</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J113" s="3" t="s">
         <v>12</v>
@@ -10399,7 +10381,7 @@
         <v>44896</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E114" s="4">
         <v>9.9499999999999993</v>
@@ -10411,10 +10393,10 @@
         <v>10</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J114" s="3" t="s">
         <v>12</v>
@@ -10440,13 +10422,13 @@
         <v>10</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.25">
@@ -10469,13 +10451,13 @@
         <v>10</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
@@ -10498,13 +10480,13 @@
         <v>10</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
@@ -10515,7 +10497,7 @@
         <v>44897</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E118" s="4">
         <v>12.99</v>
@@ -10527,13 +10509,13 @@
         <v>10</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I118" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
@@ -10544,7 +10526,7 @@
         <v>44897</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E119" s="4">
         <v>9.9499999999999993</v>
@@ -10556,13 +10538,13 @@
         <v>10</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I119" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
@@ -10585,13 +10567,13 @@
         <v>10</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I120" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
@@ -10614,13 +10596,13 @@
         <v>10</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I121" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
@@ -10643,13 +10625,13 @@
         <v>10</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I122" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
@@ -10660,7 +10642,7 @@
         <v>44898</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E123" s="4">
         <v>12.99</v>
@@ -10672,13 +10654,13 @@
         <v>10</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I123" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
@@ -10689,7 +10671,7 @@
         <v>44898</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E124" s="4">
         <v>9.9499999999999993</v>
@@ -10701,13 +10683,13 @@
         <v>10</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I124" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
@@ -10730,10 +10712,10 @@
         <v>10</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>12</v>
@@ -10759,10 +10741,10 @@
         <v>10</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I126" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J126" s="3" t="s">
         <v>12</v>
@@ -10788,10 +10770,10 @@
         <v>10</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I127" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J127" s="3" t="s">
         <v>12</v>
@@ -10805,7 +10787,7 @@
         <v>44899</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E128" s="4">
         <v>12.99</v>
@@ -10817,10 +10799,10 @@
         <v>10</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I128" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J128" s="3" t="s">
         <v>12</v>
@@ -10834,7 +10816,7 @@
         <v>44899</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E129" s="4">
         <v>9.9499999999999993</v>
@@ -10846,10 +10828,10 @@
         <v>10</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I129" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J129" s="3" t="s">
         <v>12</v>
@@ -10872,13 +10854,13 @@
         <v>630.3724928366762</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I130" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J130" s="3" t="s">
         <v>14</v>
@@ -10901,13 +10883,13 @@
         <v>745.7627118644067</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I131" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>14</v>
@@ -10930,13 +10912,13 @@
         <v>200.40080160320639</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I132" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J132" s="3" t="s">
         <v>14</v>
@@ -10950,7 +10932,7 @@
         <v>44900</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E133" s="4">
         <v>12.99</v>
@@ -10962,10 +10944,10 @@
         <v>10</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I133" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J133" s="3" t="s">
         <v>12</v>
@@ -10979,7 +10961,7 @@
         <v>44900</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E134" s="4">
         <v>9.9499999999999993</v>
@@ -10991,10 +10973,10 @@
         <v>10</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I134" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J134" s="3" t="s">
         <v>12</v>
@@ -11020,10 +11002,10 @@
         <v>10</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I135" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J135" s="3" t="s">
         <v>12</v>
@@ -11049,10 +11031,10 @@
         <v>10</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>12</v>
@@ -11078,10 +11060,10 @@
         <v>10</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I137" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J137" s="3" t="s">
         <v>12</v>
@@ -11095,7 +11077,7 @@
         <v>44901</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E138" s="4">
         <v>12.99</v>
@@ -11107,10 +11089,10 @@
         <v>10</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I138" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J138" s="3" t="s">
         <v>12</v>
@@ -11124,7 +11106,7 @@
         <v>44901</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E139" s="4">
         <v>9.9499999999999993</v>
@@ -11136,10 +11118,10 @@
         <v>10</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I139" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J139" s="3" t="s">
         <v>12</v>
@@ -11165,10 +11147,10 @@
         <v>10</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I140" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J140" s="3" t="s">
         <v>12</v>
@@ -11194,10 +11176,10 @@
         <v>10</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I141" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J141" s="3" t="s">
         <v>12</v>
@@ -11223,10 +11205,10 @@
         <v>10</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I142" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J142" s="3" t="s">
         <v>12</v>
@@ -11240,7 +11222,7 @@
         <v>44902</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E143" s="4">
         <v>12.99</v>
@@ -11252,10 +11234,10 @@
         <v>10</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I143" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J143" s="3" t="s">
         <v>12</v>
@@ -11269,7 +11251,7 @@
         <v>44902</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E144" s="4">
         <v>9.9499999999999993</v>
@@ -11281,10 +11263,10 @@
         <v>10</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I144" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J144" s="3" t="s">
         <v>12</v>
@@ -11310,10 +11292,10 @@
         <v>10</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I145" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J145" s="3" t="s">
         <v>12</v>
@@ -11339,10 +11321,10 @@
         <v>10</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I146" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J146" s="3" t="s">
         <v>12</v>
@@ -11368,10 +11350,10 @@
         <v>10</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I147" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J147" s="3" t="s">
         <v>12</v>
@@ -11385,7 +11367,7 @@
         <v>44903</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E148" s="4">
         <v>12.99</v>
@@ -11397,10 +11379,10 @@
         <v>10</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I148" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J148" s="3" t="s">
         <v>12</v>
@@ -11414,7 +11396,7 @@
         <v>44903</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E149" s="4">
         <v>9.9499999999999993</v>
@@ -11426,10 +11408,10 @@
         <v>10</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I149" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J149" s="3" t="s">
         <v>12</v>
@@ -11455,10 +11437,10 @@
         <v>10</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I150" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J150" s="3" t="s">
         <v>12</v>
@@ -11487,7 +11469,7 @@
         <v>11</v>
       </c>
       <c r="I151" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J151" s="3" t="s">
         <v>12</v>
@@ -11516,7 +11498,7 @@
         <v>11</v>
       </c>
       <c r="I152" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J152" s="3" t="s">
         <v>12</v>
@@ -11530,7 +11512,7 @@
         <v>44904</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E153" s="4">
         <v>12.99</v>
@@ -11545,7 +11527,7 @@
         <v>11</v>
       </c>
       <c r="I153" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J153" s="3" t="s">
         <v>12</v>
@@ -11559,7 +11541,7 @@
         <v>44904</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E154" s="4">
         <v>9.9499999999999993</v>
@@ -11574,7 +11556,7 @@
         <v>11</v>
       </c>
       <c r="I154" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J154" s="3" t="s">
         <v>12</v>
@@ -11603,7 +11585,7 @@
         <v>11</v>
       </c>
       <c r="I155" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J155" s="3" t="s">
         <v>12</v>
@@ -11632,7 +11614,7 @@
         <v>11</v>
       </c>
       <c r="I156" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J156" s="3" t="s">
         <v>12</v>
@@ -11661,7 +11643,7 @@
         <v>11</v>
       </c>
       <c r="I157" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J157" s="3" t="s">
         <v>12</v>
@@ -11675,7 +11657,7 @@
         <v>44905</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E158" s="4">
         <v>12.99</v>
@@ -11690,7 +11672,7 @@
         <v>11</v>
       </c>
       <c r="I158" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J158" s="3" t="s">
         <v>12</v>
@@ -11704,7 +11686,7 @@
         <v>44905</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E159" s="4">
         <v>9.9499999999999993</v>
@@ -11719,7 +11701,7 @@
         <v>11</v>
       </c>
       <c r="I159" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J159" s="3" t="s">
         <v>12</v>
@@ -11748,7 +11730,7 @@
         <v>11</v>
       </c>
       <c r="I160" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J160" s="3" t="s">
         <v>12</v>
@@ -11777,7 +11759,7 @@
         <v>11</v>
       </c>
       <c r="I161" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J161" s="3" t="s">
         <v>12</v>
@@ -11806,7 +11788,7 @@
         <v>11</v>
       </c>
       <c r="I162" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J162" s="3" t="s">
         <v>12</v>
@@ -11820,7 +11802,7 @@
         <v>44906</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E163" s="4">
         <v>12.99</v>
@@ -11835,7 +11817,7 @@
         <v>11</v>
       </c>
       <c r="I163" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J163" s="3" t="s">
         <v>12</v>
@@ -11849,7 +11831,7 @@
         <v>44906</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E164" s="4">
         <v>9.9499999999999993</v>
@@ -11864,7 +11846,7 @@
         <v>11</v>
       </c>
       <c r="I164" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J164" s="3" t="s">
         <v>12</v>
@@ -11893,7 +11875,7 @@
         <v>11</v>
       </c>
       <c r="I165" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J165" s="3" t="s">
         <v>12</v>
@@ -11922,7 +11904,7 @@
         <v>11</v>
       </c>
       <c r="I166" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J166" s="3" t="s">
         <v>12</v>
@@ -11951,7 +11933,7 @@
         <v>11</v>
       </c>
       <c r="I167" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J167" s="3" t="s">
         <v>12</v>
@@ -11965,7 +11947,7 @@
         <v>44907</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E168" s="4">
         <v>12.99</v>
@@ -11980,7 +11962,7 @@
         <v>11</v>
       </c>
       <c r="I168" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J168" s="3" t="s">
         <v>12</v>
@@ -11994,7 +11976,7 @@
         <v>44907</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E169" s="4">
         <v>9.9499999999999993</v>
@@ -12009,7 +11991,7 @@
         <v>11</v>
       </c>
       <c r="I169" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J169" s="3" t="s">
         <v>12</v>
@@ -12038,7 +12020,7 @@
         <v>11</v>
       </c>
       <c r="I170" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J170" s="3" t="s">
         <v>12</v>
@@ -12067,10 +12049,10 @@
         <v>11</v>
       </c>
       <c r="I171" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.25">
@@ -12096,10 +12078,10 @@
         <v>11</v>
       </c>
       <c r="I172" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.25">
@@ -12110,7 +12092,7 @@
         <v>44908</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E173" s="4">
         <v>12.99</v>
@@ -12122,13 +12104,13 @@
         <v>10</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I173" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.25">
@@ -12139,7 +12121,7 @@
         <v>44908</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E174" s="4">
         <v>9.9499999999999993</v>
@@ -12154,10 +12136,10 @@
         <v>11</v>
       </c>
       <c r="I174" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.25">
@@ -12183,10 +12165,10 @@
         <v>11</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.25">
@@ -12212,10 +12194,10 @@
         <v>11</v>
       </c>
       <c r="I176" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.25">
@@ -12241,10 +12223,10 @@
         <v>11</v>
       </c>
       <c r="I177" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.25">
@@ -12255,7 +12237,7 @@
         <v>44909</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E178" s="4">
         <v>12.99</v>
@@ -12270,10 +12252,10 @@
         <v>11</v>
       </c>
       <c r="I178" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.25">
@@ -12284,7 +12266,7 @@
         <v>44909</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E179" s="4">
         <v>9.9499999999999993</v>
@@ -12299,10 +12281,10 @@
         <v>11</v>
       </c>
       <c r="I179" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.25">
@@ -12328,10 +12310,10 @@
         <v>11</v>
       </c>
       <c r="I180" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.25">
@@ -12357,10 +12339,10 @@
         <v>11</v>
       </c>
       <c r="I181" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.25">
@@ -12386,10 +12368,10 @@
         <v>11</v>
       </c>
       <c r="I182" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.25">
@@ -12400,7 +12382,7 @@
         <v>44910</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E183" s="4">
         <v>12.99</v>
@@ -12415,10 +12397,10 @@
         <v>11</v>
       </c>
       <c r="I183" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.25">
@@ -12429,7 +12411,7 @@
         <v>44910</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E184" s="4">
         <v>9.9499999999999993</v>
@@ -12444,10 +12426,10 @@
         <v>11</v>
       </c>
       <c r="I184" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.25">
@@ -12470,13 +12452,13 @@
         <v>10</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I185" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.25">
@@ -12499,13 +12481,13 @@
         <v>10</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I186" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.25">
@@ -12528,13 +12510,13 @@
         <v>10</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I187" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.25">
@@ -12545,7 +12527,7 @@
         <v>44911</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E188" s="4">
         <v>12.99</v>
@@ -12557,13 +12539,13 @@
         <v>10</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I188" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.25">
@@ -12574,7 +12556,7 @@
         <v>44911</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E189" s="4">
         <v>9.9499999999999993</v>
@@ -12586,13 +12568,13 @@
         <v>10</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I189" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.25">
@@ -12618,10 +12600,10 @@
         <v>11</v>
       </c>
       <c r="I190" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.25">
@@ -12647,10 +12629,10 @@
         <v>11</v>
       </c>
       <c r="I191" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.25">
@@ -12676,10 +12658,10 @@
         <v>11</v>
       </c>
       <c r="I192" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.25">
@@ -12690,7 +12672,7 @@
         <v>44912</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E193" s="4">
         <v>12.99</v>
@@ -12705,10 +12687,10 @@
         <v>11</v>
       </c>
       <c r="I193" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.25">
@@ -12719,7 +12701,7 @@
         <v>44912</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E194" s="4">
         <v>9.9499999999999993</v>
@@ -12734,10 +12716,10 @@
         <v>11</v>
       </c>
       <c r="I194" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
@@ -12763,10 +12745,10 @@
         <v>11</v>
       </c>
       <c r="I195" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.25">
@@ -12792,10 +12774,10 @@
         <v>11</v>
       </c>
       <c r="I196" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.25">
@@ -12821,10 +12803,10 @@
         <v>11</v>
       </c>
       <c r="I197" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.25">
@@ -12835,7 +12817,7 @@
         <v>44913</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E198" s="4">
         <v>12.99</v>
@@ -12850,10 +12832,10 @@
         <v>11</v>
       </c>
       <c r="I198" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.25">
@@ -12864,7 +12846,7 @@
         <v>44913</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E199" s="4">
         <v>9.9499999999999993</v>
@@ -12879,10 +12861,10 @@
         <v>11</v>
       </c>
       <c r="I199" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.25">
@@ -12908,10 +12890,10 @@
         <v>11</v>
       </c>
       <c r="I200" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.25">
@@ -12934,13 +12916,13 @@
         <v>10</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I201" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.25">
@@ -12963,13 +12945,13 @@
         <v>10</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I202" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.25">
@@ -12980,7 +12962,7 @@
         <v>44914</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E203" s="4">
         <v>12.99</v>
@@ -12992,13 +12974,13 @@
         <v>16</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I203" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.25">
@@ -13009,7 +12991,7 @@
         <v>44914</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E204" s="4">
         <v>9.9499999999999993</v>
@@ -13021,13 +13003,13 @@
         <v>16</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I204" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.25">
@@ -13050,13 +13032,13 @@
         <v>16</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I205" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.25">
@@ -13079,13 +13061,13 @@
         <v>16</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I206" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.25">
@@ -13108,13 +13090,13 @@
         <v>16</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I207" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.25">
@@ -13125,7 +13107,7 @@
         <v>44915</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E208" s="4">
         <v>12.99</v>
@@ -13137,13 +13119,13 @@
         <v>16</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I208" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.25">
@@ -13154,7 +13136,7 @@
         <v>44915</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E209" s="4">
         <v>9.9499999999999993</v>
@@ -13166,13 +13148,13 @@
         <v>16</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I209" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.25">
@@ -13195,13 +13177,13 @@
         <v>16</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I210" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.25">
@@ -13224,13 +13206,13 @@
         <v>16</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I211" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.25">
@@ -13253,13 +13235,13 @@
         <v>16</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I212" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.25">
@@ -13270,7 +13252,7 @@
         <v>44916</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E213" s="4">
         <v>12.99</v>
@@ -13282,13 +13264,13 @@
         <v>16</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I213" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.25">
@@ -13299,7 +13281,7 @@
         <v>44916</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E214" s="4">
         <v>9.9499999999999993</v>
@@ -13311,13 +13293,13 @@
         <v>16</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I214" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.25">
@@ -13340,13 +13322,13 @@
         <v>16</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I215" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.25">
@@ -13369,13 +13351,13 @@
         <v>16</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I216" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.25">
@@ -13398,13 +13380,13 @@
         <v>16</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I217" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.25">
@@ -13415,7 +13397,7 @@
         <v>44917</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E218" s="4">
         <v>12.99</v>
@@ -13427,13 +13409,13 @@
         <v>16</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I218" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.25">
@@ -13444,7 +13426,7 @@
         <v>44917</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E219" s="4">
         <v>9.9499999999999993</v>
@@ -13456,13 +13438,13 @@
         <v>16</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I219" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.25">
@@ -13485,13 +13467,13 @@
         <v>16</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I220" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.25">
@@ -13514,13 +13496,13 @@
         <v>16</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I221" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.25">
@@ -13543,13 +13525,13 @@
         <v>16</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I222" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.25">
@@ -13560,7 +13542,7 @@
         <v>44918</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E223" s="4">
         <v>12.99</v>
@@ -13572,13 +13554,13 @@
         <v>16</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I223" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.25">
@@ -13589,7 +13571,7 @@
         <v>44918</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E224" s="4">
         <v>9.9499999999999993</v>
@@ -13601,13 +13583,13 @@
         <v>16</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I224" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.25">
@@ -13630,13 +13612,13 @@
         <v>16</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I225" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.25">
@@ -13659,13 +13641,13 @@
         <v>16</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I226" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.25">
@@ -13688,13 +13670,13 @@
         <v>16</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I227" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.25">
@@ -13705,7 +13687,7 @@
         <v>44919</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E228" s="4">
         <v>12.99</v>
@@ -13717,13 +13699,13 @@
         <v>16</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I228" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.25">
@@ -13734,7 +13716,7 @@
         <v>44919</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E229" s="4">
         <v>9.9499999999999993</v>
@@ -13746,13 +13728,13 @@
         <v>16</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I229" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.25">
@@ -13775,13 +13757,13 @@
         <v>16</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I230" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J230" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J230" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="231" spans="2:10" x14ac:dyDescent="0.25">
@@ -13804,13 +13786,13 @@
         <v>16</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I231" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J231" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J231" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.25">
@@ -13833,13 +13815,13 @@
         <v>16</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I232" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J232" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J232" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.25">
@@ -13850,7 +13832,7 @@
         <v>44920</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E233" s="4">
         <v>12.99</v>
@@ -13862,13 +13844,13 @@
         <v>16</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I233" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J233" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J233" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.25">
@@ -13879,7 +13861,7 @@
         <v>44920</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E234" s="4">
         <v>9.9499999999999993</v>
@@ -13891,13 +13873,13 @@
         <v>16</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I234" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J234" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J234" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.25">
@@ -13920,13 +13902,13 @@
         <v>16</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I235" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J235" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J235" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="236" spans="2:10" x14ac:dyDescent="0.25">
@@ -13949,13 +13931,13 @@
         <v>16</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I236" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J236" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J236" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="237" spans="2:10" x14ac:dyDescent="0.25">
@@ -13978,13 +13960,13 @@
         <v>16</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I237" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J237" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J237" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.25">
@@ -13995,7 +13977,7 @@
         <v>44921</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E238" s="4">
         <v>12.99</v>
@@ -14007,13 +13989,13 @@
         <v>16</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I238" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J238" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J238" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.25">
@@ -14024,7 +14006,7 @@
         <v>44921</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E239" s="4">
         <v>9.9499999999999993</v>
@@ -14036,13 +14018,13 @@
         <v>16</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I239" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J239" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J239" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.25">
@@ -14065,13 +14047,13 @@
         <v>16</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I240" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J240" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J240" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.25">
@@ -14094,13 +14076,13 @@
         <v>16</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I241" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J241" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J241" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="242" spans="2:10" x14ac:dyDescent="0.25">
@@ -14123,13 +14105,13 @@
         <v>16</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I242" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J242" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J242" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.25">
@@ -14140,7 +14122,7 @@
         <v>44922</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E243" s="4">
         <v>12.99</v>
@@ -14152,13 +14134,13 @@
         <v>16</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I243" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J243" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J243" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.25">
@@ -14169,7 +14151,7 @@
         <v>44922</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E244" s="4">
         <v>9.9499999999999993</v>
@@ -14181,13 +14163,13 @@
         <v>16</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I244" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J244" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J244" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="245" spans="2:10" x14ac:dyDescent="0.25">
@@ -14210,13 +14192,13 @@
         <v>16</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I245" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J245" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J245" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="246" spans="2:10" x14ac:dyDescent="0.25">
@@ -14242,10 +14224,10 @@
         <v>11</v>
       </c>
       <c r="I246" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J246" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J246" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="247" spans="2:10" x14ac:dyDescent="0.25">
@@ -14265,16 +14247,16 @@
         <v>200.40080160320639</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H247" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I247" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J247" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J247" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.25">
@@ -14285,7 +14267,7 @@
         <v>44923</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E248" s="4">
         <v>12.99</v>
@@ -14294,16 +14276,16 @@
         <v>723.63356428021552</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H248" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I248" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J248" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J248" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="249" spans="2:10" x14ac:dyDescent="0.25">
@@ -14314,7 +14296,7 @@
         <v>44923</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E249" s="4">
         <v>9.9499999999999993</v>
@@ -14323,16 +14305,16 @@
         <v>301.50753768844226</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H249" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I249" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J249" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J249" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="250" spans="2:10" x14ac:dyDescent="0.25">
@@ -14352,16 +14334,16 @@
         <v>630.3724928366762</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H250" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I250" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J250" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J250" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="251" spans="2:10" x14ac:dyDescent="0.25">
@@ -14381,16 +14363,16 @@
         <v>677.96610169491521</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H251" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I251" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J251" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J251" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="252" spans="2:10" x14ac:dyDescent="0.25">
@@ -14410,16 +14392,16 @@
         <v>200.40080160320639</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H252" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I252" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J252" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J252" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="253" spans="2:10" x14ac:dyDescent="0.25">
@@ -14430,7 +14412,7 @@
         <v>44924</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E253" s="4">
         <v>12.99</v>
@@ -14439,16 +14421,16 @@
         <v>754.42648190916088</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H253" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I253" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J253" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J253" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="254" spans="2:10" x14ac:dyDescent="0.25">
@@ -14459,7 +14441,7 @@
         <v>44924</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E254" s="4">
         <v>9.9499999999999993</v>
@@ -14468,16 +14450,16 @@
         <v>281.4070351758794</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H254" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I254" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J254" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J254" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="255" spans="2:10" x14ac:dyDescent="0.25">
@@ -14497,16 +14479,16 @@
         <v>630.3724928366762</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H255" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I255" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J255" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J255" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="256" spans="2:10" x14ac:dyDescent="0.25">
@@ -14526,16 +14508,16 @@
         <v>677.96610169491521</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H256" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I256" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J256" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J256" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
